--- a/nodes_source_analyses/transport/transport_ship_using_lng_mix.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_ship_using_lng_mix.converter.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robterwel/Projects/etdataset/nodes_source_analyses/transport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterate="1" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -184,9 +187,6 @@
   </si>
   <si>
     <t>Technical</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Comments</t>
@@ -296,6 +296,10 @@
   <si>
     <t>Not used in ETM yet</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -307,7 +311,7 @@
     <numFmt numFmtId="166" formatCode="0.000000000000"/>
     <numFmt numFmtId="167" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -495,11 +499,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1165,7 +1164,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1196,7 +1195,7 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1237,31 +1236,31 @@
     </xf>
     <xf numFmtId="167" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1526,83 +1525,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>431800</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3759200</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2185,10 +2108,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="19" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="19" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="19"/>
+    <col min="1" max="1" width="3.28515625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="19" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -2214,7 +2137,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2223,7 +2146,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2359,29 +2282,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="46.83203125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="32" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="32" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="32" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="32" customWidth="1"/>
     <col min="5" max="5" width="23" style="32" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="32" customWidth="1"/>
-    <col min="7" max="7" width="43.1640625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="32" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="32" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="32" customWidth="1"/>
+    <col min="7" max="7" width="43.140625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="32" customWidth="1"/>
     <col min="10" max="10" width="5" style="32" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="32"/>
+    <col min="11" max="16384" width="10.7109375" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.2">
@@ -2392,7 +2315,7 @@
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="122" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C2" s="123"/>
       <c r="D2" s="123"/>
@@ -2486,10 +2409,10 @@
     <row r="11" spans="2:11" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="117" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="120">
         <f>'Research data'!H7</f>
@@ -2497,11 +2420,11 @@
       </c>
       <c r="F11" s="36"/>
       <c r="G11" s="104" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="116" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J11" s="14"/>
     </row>
@@ -2518,7 +2441,7 @@
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="104" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="36"/>
       <c r="I12" s="116"/>
@@ -2568,7 +2491,7 @@
       </c>
       <c r="H15" s="36"/>
       <c r="I15" s="116" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J15" s="92"/>
     </row>
@@ -2590,38 +2513,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>431800</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3759200</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>76200</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </worksheet>
 </file>
 
@@ -2638,16 +2529,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="42" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="42" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="42" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="42" customWidth="1"/>
-    <col min="7" max="7" width="3.1640625" style="42" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="42" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" style="42" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="42"/>
+    <col min="1" max="1" width="3.28515625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="42" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="42" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" style="42" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="42" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="42" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="42"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -2678,7 +2569,7 @@
       <c r="I4" s="87"/>
       <c r="J4" s="87"/>
       <c r="K4" s="87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2709,12 +2600,12 @@
     <row r="7" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="45"/>
       <c r="C7" s="105" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="51"/>
       <c r="E7" s="51"/>
       <c r="F7" s="106" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="88"/>
       <c r="H7" s="113">
@@ -2724,7 +2615,7 @@
       <c r="I7" s="46"/>
       <c r="J7" s="46"/>
       <c r="K7" s="114" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -2768,7 +2659,7 @@
       <c r="I10" s="11"/>
       <c r="J10" s="48"/>
       <c r="K10" s="121" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2786,7 +2677,7 @@
       <c r="I11" s="54"/>
       <c r="J11" s="48"/>
       <c r="K11" s="121" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
@@ -2823,7 +2714,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="119" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="89"/>
       <c r="H14" s="49">
@@ -2833,7 +2724,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="48"/>
       <c r="K14" s="114" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2853,18 +2744,18 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="59" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" style="59" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" style="59" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="59" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="59" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" style="59" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="65" customWidth="1"/>
-    <col min="9" max="9" width="31.83203125" style="65" customWidth="1"/>
-    <col min="10" max="10" width="98.33203125" style="59" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="59"/>
+    <col min="1" max="1" width="3.7109375" style="59" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="59" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="59" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="59" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="59" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="59" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="65" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" style="65" customWidth="1"/>
+    <col min="10" max="10" width="98.28515625" style="59" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="59"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -2918,13 +2809,13 @@
         <v>16</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>9</v>
@@ -2947,13 +2838,13 @@
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="63"/>
       <c r="C8" s="107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="108" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="108" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="109">
         <v>41395</v>
@@ -2963,10 +2854,10 @@
         <v>42278</v>
       </c>
       <c r="I8" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J8" s="110" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
@@ -2997,10 +2888,10 @@
         <v>3</v>
       </c>
       <c r="D11" s="108" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="108" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="109">
         <v>41395</v>
@@ -3010,10 +2901,10 @@
         <v>42278</v>
       </c>
       <c r="I11" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J11" s="110" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
@@ -3042,10 +2933,10 @@
         <v>6</v>
       </c>
       <c r="D14" s="108" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="108" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="109">
         <v>41395</v>
@@ -3055,10 +2946,10 @@
         <v>42278</v>
       </c>
       <c r="I14" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J14" s="110" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
@@ -3086,7 +2977,7 @@
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="63"/>
       <c r="C17" s="107" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="58"/>
       <c r="E17" s="58"/>
@@ -3146,13 +3037,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="59" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="59" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="59" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="59" customWidth="1"/>
     <col min="3" max="3" width="17" style="59" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="59" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="59" customWidth="1"/>
     <col min="5" max="5" width="22" style="59" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="59" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="59"/>
+    <col min="6" max="6" width="7.140625" style="59" customWidth="1"/>
+    <col min="7" max="16384" width="10.7109375" style="59"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3220,7 +3111,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="63"/>
       <c r="C6" s="108" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="58"/>
       <c r="G6" s="58"/>
@@ -3290,14 +3181,14 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="63"/>
       <c r="C11" s="115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="58"/>
       <c r="E11" s="108">
         <v>601</v>
       </c>
       <c r="F11" s="108" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G11" s="58"/>
       <c r="H11" s="58"/>
@@ -3316,7 +3207,7 @@
         <v>1.6638935108149999E-3</v>
       </c>
       <c r="F12" s="108" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" s="58"/>
       <c r="H12" s="58"/>
@@ -3537,7 +3428,7 @@
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="63"/>
       <c r="C28" s="115" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="58"/>
       <c r="E28" s="58">
@@ -3683,7 +3574,7 @@
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="63"/>
       <c r="C38" s="115" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D38" s="58"/>
       <c r="E38" s="58"/>
@@ -3699,7 +3590,7 @@
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="63"/>
       <c r="C39" s="115" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D39" s="58"/>
       <c r="E39" s="58">
@@ -3733,7 +3624,7 @@
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="63"/>
       <c r="C41" s="115" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>

--- a/nodes_source_analyses/transport/transport_ship_using_lng_mix.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_ship_using_lng_mix.converter.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/transport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16240" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
   <si>
     <t>Source</t>
   </si>
@@ -263,31 +263,6 @@
     <t>http://refman.et-model.com/publications/1928</t>
   </si>
   <si>
-    <r>
-      <t>output.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shipping</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_kms</t>
-    </r>
-  </si>
-  <si>
     <t>yrs</t>
   </si>
   <si>
@@ -299,6 +274,51 @@
   <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
+  </si>
+  <si>
+    <t>output.freight_tonne_kms</t>
+  </si>
+  <si>
+    <t>tkm/MJ</t>
+  </si>
+  <si>
+    <t>Tonne km</t>
+  </si>
+  <si>
+    <t>Eurostat</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>http://ec.europa.eu/eurostat/web/transport/data/main-tables?p_p_id=NavTreeportletprod_WAR_NavTreeportletprod_INSTANCE_BXN01QNK1Jk7&amp;p_p_lifecycle=0&amp;p_p_state=normal&amp;p_p_mode=view&amp;p_p_col_id=column-2&amp;p_p_col_count=1</t>
+  </si>
+  <si>
+    <t>vessel km</t>
+  </si>
+  <si>
+    <t>Vessel km</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>thousand vessel km</t>
+  </si>
+  <si>
+    <t>tonne km</t>
+  </si>
+  <si>
+    <t>mln tonne km</t>
+  </si>
+  <si>
+    <t>tonne km/vessel km</t>
+  </si>
+  <si>
+    <t>tonne km/MJ</t>
+  </si>
+  <si>
+    <t>cedelft-ecn-tno</t>
   </si>
 </sst>
 </file>
@@ -311,7 +331,7 @@
     <numFmt numFmtId="166" formatCode="0.000000000000"/>
     <numFmt numFmtId="167" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -477,6 +497,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -484,6 +505,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -491,6 +513,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -498,11 +521,13 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -516,6 +541,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1053,7 +1086,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1069,9 +1102,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1126,12 +1156,6 @@
     </xf>
     <xf numFmtId="10" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1263,6 +1287,16 @@
     <xf numFmtId="0" fontId="28" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="249">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1651,6 +1685,82 @@
         <a:xfrm>
           <a:off x="3987800" y="7251700"/>
           <a:ext cx="5346700" cy="825500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4660900" y="11772900"/>
+          <a:ext cx="12915900" cy="3276600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>41717</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="8547100"/>
+          <a:ext cx="10198100" cy="2937317"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2108,23 +2218,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="19" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="19"/>
+    <col min="1" max="1" width="3.33203125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -2137,7 +2247,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2170,105 +2280,105 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="73"/>
+      <c r="C9" s="70"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="75"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="72"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="73" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="71"/>
+      <c r="C12" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="77" t="s">
+      <c r="B13" s="71"/>
+      <c r="C13" s="74" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="75" t="s">
+      <c r="B14" s="71"/>
+      <c r="C14" s="72" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="75"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="75" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="79" t="s">
+      <c r="B17" s="71"/>
+      <c r="C17" s="76" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="80" t="s">
+      <c r="B18" s="71"/>
+      <c r="C18" s="77" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="81" t="s">
+      <c r="B19" s="71"/>
+      <c r="C19" s="78" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="83" t="s">
+      <c r="B20" s="79"/>
+      <c r="C20" s="80" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="84" t="s">
+      <c r="B21" s="79"/>
+      <c r="C21" s="81" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="85" t="s">
+      <c r="B22" s="79"/>
+      <c r="C22" s="82" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="82"/>
-      <c r="C23" s="86" t="s">
+      <c r="B23" s="79"/>
+      <c r="C23" s="83" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2289,222 +2399,222 @@
   <dimension ref="B1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="32" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" style="32" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="23" style="32" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="32" customWidth="1"/>
-    <col min="7" max="7" width="43.140625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="32" customWidth="1"/>
-    <col min="9" max="9" width="42.42578125" style="32" customWidth="1"/>
-    <col min="10" max="10" width="5" style="32" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="32"/>
+    <col min="1" max="1" width="4.1640625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="46.83203125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="23" style="31" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="43.1640625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="42.5" style="31" customWidth="1"/>
+    <col min="10" max="10" width="5" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="119" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="122"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="125"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+    </row>
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="32"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="33"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="34"/>
+    </row>
+    <row r="8" spans="2:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="90"/>
+      <c r="C8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="27"/>
+    </row>
+    <row r="9" spans="2:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="20"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="2:11" s="21" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+      <c r="C10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="2:11" s="21" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+      <c r="C11" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="125"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="125"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="128"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-    </row>
-    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="33"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="34"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="35"/>
-    </row>
-    <row r="8" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="93"/>
-      <c r="C8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="94" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15" t="s">
+      <c r="D11" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="117">
+        <f>'Research data'!F7</f>
+        <v>0.97790091728598094</v>
+      </c>
+      <c r="F11" s="35"/>
+      <c r="G11" s="101" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="113" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="36"/>
+      <c r="C12" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="37">
         <v>0</v>
       </c>
-      <c r="J8" s="28"/>
-    </row>
-    <row r="9" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="21"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="2:11" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
-      <c r="C10" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="2:11" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
-      <c r="C11" s="117" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="120">
-        <f>'Research data'!H7</f>
-        <v>1.6638935108149999E-3</v>
-      </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="104" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="116" t="s">
+      <c r="F12" s="35"/>
+      <c r="G12" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="35"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="32"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="36"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="32"/>
+    </row>
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="36"/>
+      <c r="C14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="92"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="89"/>
+    </row>
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="36"/>
+      <c r="C15" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="37">
+        <f>'Research data'!F14</f>
+        <v>25</v>
+      </c>
+      <c r="F15" s="35"/>
+      <c r="G15" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="35"/>
+      <c r="I15" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="37"/>
-      <c r="C12" s="104" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="38">
-        <v>0</v>
-      </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="33"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="37"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="33"/>
-    </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="37"/>
-      <c r="C14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="95"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="92"/>
-    </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="37"/>
-      <c r="C15" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="38">
-        <f>'Research data'!H14</f>
-        <v>25</v>
-      </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="116" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="92"/>
+      <c r="J15" s="89"/>
     </row>
     <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="41"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -2521,209 +2631,183 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:K14"/>
+  <dimension ref="B2:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="42" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="42" customWidth="1"/>
-    <col min="7" max="7" width="3.140625" style="42" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="42" customWidth="1"/>
-    <col min="9" max="9" width="2.7109375" style="42" customWidth="1"/>
-    <col min="10" max="16384" width="10.7109375" style="42"/>
+    <col min="1" max="1" width="3.33203125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="3.1640625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="41" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" style="41" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="41"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-    </row>
-    <row r="4" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="21"/>
-      <c r="C4" s="87" t="s">
+    <row r="2" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+    </row>
+    <row r="4" spans="2:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="20"/>
+      <c r="C4" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="87" t="s">
+      <c r="D4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87" t="s">
+      <c r="E4" s="84"/>
+      <c r="F4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87" t="s">
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="45"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="K5" s="56"/>
-    </row>
-    <row r="6" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="45"/>
-      <c r="C6" s="12" t="s">
+    <row r="5" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="44"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="I5" s="53"/>
+    </row>
+    <row r="6" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="44"/>
+      <c r="C6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="55"/>
-    </row>
-    <row r="7" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="45"/>
-      <c r="C7" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="106" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="88"/>
-      <c r="H7" s="113">
-        <f>Notes!E12</f>
-        <v>1.6638935108149999E-3</v>
-      </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="114" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="52"/>
+    </row>
+    <row r="7" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="44"/>
+      <c r="C7" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="85"/>
+      <c r="F7" s="110">
+        <f>Notes!E53</f>
+        <v>0.97790091728598094</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="111" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="45"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="47"/>
-    </row>
-    <row r="9" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="45"/>
-      <c r="C9" s="12" t="s">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="44"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="46"/>
+    </row>
+    <row r="9" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="44"/>
+      <c r="C9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="56"/>
-    </row>
-    <row r="10" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="45"/>
-      <c r="C10" s="91" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="53"/>
+    </row>
+    <row r="10" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="44"/>
+      <c r="C10" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="57" t="s">
+      <c r="D10" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="89"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="121" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="45"/>
-      <c r="C11" s="91" t="s">
+      <c r="E10" s="86"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="118" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="44"/>
+      <c r="C11" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="90" t="s">
+      <c r="D11" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="88"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="121" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="45"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47"/>
-    </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="45"/>
-      <c r="C13" s="12" t="s">
+      <c r="E11" s="85"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="118" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="44"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="46"/>
+    </row>
+    <row r="13" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="44"/>
+      <c r="C13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="56"/>
-    </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="45"/>
-      <c r="C14" s="118" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="53"/>
+    </row>
+    <row r="14" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="44"/>
+      <c r="C14" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="119" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="89"/>
-      <c r="H14" s="49">
+      <c r="D14" s="116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="86"/>
+      <c r="F14" s="48">
         <f>Notes!E28</f>
         <v>25</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="114" t="s">
+      <c r="G14" s="10"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="111" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2738,280 +2822,314 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:J20"/>
+  <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="59" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="59" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" style="59" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="59" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="59" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="59" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="65" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" style="65" customWidth="1"/>
-    <col min="10" max="10" width="98.28515625" style="59" customWidth="1"/>
-    <col min="11" max="16384" width="33.140625" style="59"/>
+    <col min="1" max="1" width="3.6640625" style="56" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" style="56" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" style="56" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="56" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="56" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" style="56" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="62" customWidth="1"/>
+    <col min="9" max="9" width="31.83203125" style="62" customWidth="1"/>
+    <col min="10" max="10" width="98.33203125" style="56" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="60"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="61"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="63"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="58"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="63"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="58"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="68"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="65"/>
+      <c r="C5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="63"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="13"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="63"/>
+      <c r="B7" s="60"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="63"/>
-      <c r="C8" s="107" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="108" t="s">
+      <c r="D8" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="108" t="s">
+      <c r="E8" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="109">
+      <c r="F8" s="106">
         <v>41395</v>
       </c>
-      <c r="G8" s="58"/>
-      <c r="H8" s="112">
+      <c r="G8" s="55"/>
+      <c r="H8" s="109">
         <v>42278</v>
       </c>
-      <c r="I8" s="58" t="s">
+      <c r="I8" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="110" t="s">
+      <c r="J8" s="107" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="63"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="63"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="63"/>
-      <c r="C11" s="107" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="108" t="s">
+      <c r="E11" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="109">
+      <c r="F11" s="106">
         <v>41395</v>
       </c>
-      <c r="G11" s="58"/>
-      <c r="H11" s="112">
+      <c r="G11" s="55"/>
+      <c r="H11" s="109">
         <v>42278</v>
       </c>
-      <c r="I11" s="58" t="s">
+      <c r="I11" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="110" t="s">
+      <c r="J11" s="107" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="63"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="58"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="55"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="63"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="58"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="55"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="63"/>
-      <c r="C14" s="69" t="s">
+      <c r="B14" s="60"/>
+      <c r="C14" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="108" t="s">
+      <c r="D14" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="108" t="s">
+      <c r="E14" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="109">
+      <c r="F14" s="106">
         <v>41395</v>
       </c>
-      <c r="G14" s="58"/>
-      <c r="H14" s="112">
+      <c r="G14" s="55"/>
+      <c r="H14" s="109">
         <v>42278</v>
       </c>
-      <c r="I14" s="58" t="s">
+      <c r="I14" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="110" t="s">
+      <c r="J14" s="107" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="63"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="63"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="63"/>
-      <c r="C17" s="107" t="s">
+      <c r="B17" s="60"/>
+      <c r="C17" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="63"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="63"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="99"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="H20" s="103"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+    </row>
+    <row r="19" spans="2:10" s="128" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="128" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="128" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="128">
+        <v>2011</v>
+      </c>
+      <c r="H19" s="129" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="129" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" s="128" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="128" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="128" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="128">
+        <v>2011</v>
+      </c>
+      <c r="H20" s="129" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="129" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="60"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="96"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="H22" s="100"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3029,1389 +3147,1806 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:M128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="59" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="59" customWidth="1"/>
-    <col min="3" max="3" width="17" style="59" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="59" customWidth="1"/>
-    <col min="5" max="5" width="22" style="59" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="59" customWidth="1"/>
-    <col min="7" max="16384" width="10.7109375" style="59"/>
+    <col min="1" max="1" width="3.33203125" style="56" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="56" customWidth="1"/>
+    <col min="3" max="3" width="17" style="56" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="56" customWidth="1"/>
+    <col min="5" max="5" width="22" style="56" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="56" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="60"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="15" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="63"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="63"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="63"/>
-      <c r="C6" s="108" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
+      <c r="D6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="63"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="63"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="63"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="63"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="63"/>
-      <c r="C11" s="115" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="108">
+      <c r="D11" s="55"/>
+      <c r="E11" s="105">
         <v>601</v>
       </c>
-      <c r="F11" s="108" t="s">
+      <c r="F11" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="63"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58">
+      <c r="B12" s="60"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55">
         <f>ROUND(1/E11,15)</f>
         <v>1.6638935108149999E-3</v>
       </c>
-      <c r="F12" s="108" t="s">
+      <c r="F12" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="63"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="63"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="63"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="63"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="63"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="63"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="63"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="63"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="63"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="63"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="63"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="63"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="63"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="63"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="63"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="63"/>
-      <c r="C28" s="115" t="s">
+      <c r="B28" s="60"/>
+      <c r="C28" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58">
+      <c r="D28" s="55"/>
+      <c r="E28" s="55">
         <v>25</v>
       </c>
-      <c r="F28" s="115" t="s">
+      <c r="F28" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="63"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="63"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="63"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="63"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33" s="63"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B34" s="63"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35" s="63"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="58"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36" s="63"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B37" s="63"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="58"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B38" s="63"/>
-      <c r="C38" s="115" t="s">
+      <c r="B38" s="60"/>
+      <c r="C38" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="58"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B39" s="63"/>
-      <c r="C39" s="115" t="s">
+      <c r="B39" s="60"/>
+      <c r="C39" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58">
+      <c r="D39" s="55"/>
+      <c r="E39" s="55">
         <v>600000</v>
       </c>
-      <c r="F39" s="115" t="s">
+      <c r="F39" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B40" s="63"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="63"/>
-      <c r="C41" s="115" t="s">
+      <c r="B41" s="60"/>
+      <c r="C41" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="58"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B42" s="63"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="58"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B43" s="63"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="58"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B44" s="63"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="58"/>
-      <c r="M44" s="58"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B45" s="63"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="58"/>
-      <c r="M45" s="58"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B46" s="63"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="58"/>
-      <c r="M46" s="58"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B47" s="63"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="58"/>
-      <c r="L47" s="58"/>
-      <c r="M47" s="58"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B48" s="63"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="58"/>
-      <c r="L48" s="58"/>
-      <c r="M48" s="58"/>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B49" s="63"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="58"/>
-      <c r="M49" s="58"/>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B50" s="63"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="58"/>
-      <c r="L50" s="58"/>
-      <c r="M50" s="58"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B51" s="63"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="58"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="58"/>
-      <c r="L51" s="58"/>
-      <c r="M51" s="58"/>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B52" s="63"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="58"/>
-      <c r="L52" s="58"/>
-      <c r="M52" s="58"/>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B53" s="63"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="58"/>
-      <c r="L53" s="58"/>
-      <c r="M53" s="58"/>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B54" s="63"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="58"/>
-      <c r="L54" s="58"/>
-      <c r="M54" s="58"/>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B55" s="63"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="58"/>
-      <c r="L55" s="58"/>
-      <c r="M55" s="58"/>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B56" s="63"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="58"/>
-      <c r="L56" s="58"/>
-      <c r="M56" s="58"/>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B57" s="63"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="58"/>
-      <c r="J57" s="58"/>
-      <c r="K57" s="58"/>
-      <c r="L57" s="58"/>
-      <c r="M57" s="58"/>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B58" s="63"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="58"/>
-      <c r="J58" s="58"/>
-      <c r="K58" s="58"/>
-      <c r="L58" s="58"/>
-      <c r="M58" s="58"/>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B59" s="63"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="58"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="58"/>
-      <c r="H59" s="58"/>
-      <c r="I59" s="58"/>
-      <c r="J59" s="58"/>
-      <c r="K59" s="58"/>
-      <c r="L59" s="58"/>
-      <c r="M59" s="58"/>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B60" s="63"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="58"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="58"/>
-      <c r="L60" s="58"/>
-      <c r="M60" s="58"/>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B61" s="63"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="58"/>
-      <c r="F61" s="58"/>
-      <c r="G61" s="58"/>
-      <c r="H61" s="58"/>
-      <c r="I61" s="58"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="58"/>
-      <c r="L61" s="58"/>
-      <c r="M61" s="58"/>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B62" s="63"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="58"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="58"/>
-      <c r="I62" s="58"/>
-      <c r="J62" s="58"/>
-      <c r="K62" s="58"/>
-      <c r="L62" s="58"/>
-      <c r="M62" s="58"/>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B63" s="63"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="98"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="58"/>
-      <c r="J63" s="58"/>
-      <c r="K63" s="58"/>
-      <c r="L63" s="58"/>
-      <c r="M63" s="58"/>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B64" s="63"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="58"/>
-      <c r="J64" s="58"/>
-      <c r="K64" s="58"/>
-      <c r="L64" s="58"/>
-      <c r="M64" s="58"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B65" s="63"/>
-      <c r="C65" s="58"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="58"/>
-      <c r="I65" s="58"/>
-      <c r="J65" s="58"/>
-      <c r="K65" s="58"/>
-      <c r="L65" s="58"/>
-      <c r="M65" s="58"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B66" s="63"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="58"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="58"/>
-      <c r="G66" s="58"/>
-      <c r="H66" s="58"/>
-      <c r="I66" s="58"/>
-      <c r="J66" s="58"/>
-      <c r="K66" s="58"/>
-      <c r="L66" s="58"/>
-      <c r="M66" s="58"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B67" s="63"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="58"/>
-      <c r="H67" s="58"/>
-      <c r="I67" s="58"/>
-      <c r="J67" s="58"/>
-      <c r="K67" s="58"/>
-      <c r="L67" s="58"/>
-      <c r="M67" s="58"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B68" s="63"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="58"/>
-      <c r="E68" s="58"/>
-      <c r="F68" s="58"/>
-      <c r="G68" s="58"/>
-      <c r="H68" s="58"/>
-      <c r="I68" s="58"/>
-      <c r="J68" s="58"/>
-      <c r="K68" s="58"/>
-      <c r="L68" s="58"/>
-      <c r="M68" s="58"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B69" s="63"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="58"/>
-      <c r="F69" s="58"/>
-      <c r="G69" s="58"/>
-      <c r="H69" s="58"/>
-      <c r="I69" s="58"/>
-      <c r="J69" s="58"/>
-      <c r="K69" s="58"/>
-      <c r="L69" s="58"/>
-      <c r="M69" s="58"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B70" s="63"/>
-      <c r="C70" s="58"/>
-      <c r="D70" s="58"/>
-      <c r="E70" s="58"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="58"/>
-      <c r="H70" s="58"/>
-      <c r="I70" s="58"/>
-      <c r="J70" s="58"/>
-      <c r="K70" s="58"/>
-      <c r="L70" s="58"/>
-      <c r="M70" s="58"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55"/>
+    </row>
+    <row r="43" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="60"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="55"/>
+    </row>
+    <row r="44" spans="2:13" s="128" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="130"/>
+      <c r="C44" s="131" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="132" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="133">
+        <v>20714</v>
+      </c>
+      <c r="F44" s="132" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" s="132"/>
+      <c r="H44" s="132"/>
+      <c r="I44" s="134"/>
+      <c r="J44" s="134"/>
+      <c r="K44" s="134"/>
+      <c r="L44" s="134"/>
+      <c r="M44" s="134"/>
+    </row>
+    <row r="45" spans="2:13" s="128" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="130"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="135">
+        <f>E44*1000</f>
+        <v>20714000</v>
+      </c>
+      <c r="F45" s="132" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" s="132"/>
+      <c r="H45" s="132"/>
+      <c r="I45" s="134"/>
+      <c r="J45" s="134"/>
+      <c r="K45" s="134"/>
+      <c r="L45" s="134"/>
+      <c r="M45" s="134"/>
+    </row>
+    <row r="46" spans="2:13" s="128" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="130"/>
+      <c r="C46" s="132"/>
+      <c r="D46" s="132" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="136">
+        <v>12174</v>
+      </c>
+      <c r="F46" s="132" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="132"/>
+      <c r="H46" s="132"/>
+      <c r="I46" s="134"/>
+      <c r="J46" s="134"/>
+      <c r="K46" s="134"/>
+      <c r="L46" s="134"/>
+      <c r="M46" s="134"/>
+    </row>
+    <row r="47" spans="2:13" s="128" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="130"/>
+      <c r="C47" s="132"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="135">
+        <f>E46*1000000</f>
+        <v>12174000000</v>
+      </c>
+      <c r="F47" s="132" t="s">
+        <v>78</v>
+      </c>
+      <c r="G47" s="132"/>
+      <c r="H47" s="132"/>
+      <c r="I47" s="134"/>
+      <c r="J47" s="134"/>
+      <c r="K47" s="134"/>
+      <c r="L47" s="134"/>
+      <c r="M47" s="134"/>
+    </row>
+    <row r="48" spans="2:13" s="128" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="130"/>
+      <c r="C48" s="132"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="132"/>
+      <c r="F48" s="132"/>
+      <c r="G48" s="132"/>
+      <c r="H48" s="132"/>
+      <c r="I48" s="134"/>
+      <c r="J48" s="134"/>
+      <c r="K48" s="134"/>
+      <c r="L48" s="134"/>
+      <c r="M48" s="134"/>
+    </row>
+    <row r="49" spans="2:13" s="128" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="130"/>
+      <c r="C49" s="132"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="137"/>
+      <c r="F49" s="132"/>
+      <c r="G49" s="132"/>
+      <c r="H49" s="132"/>
+      <c r="I49" s="134"/>
+      <c r="J49" s="134"/>
+      <c r="K49" s="134"/>
+      <c r="L49" s="134"/>
+      <c r="M49" s="134"/>
+    </row>
+    <row r="50" spans="2:13" s="128" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="130"/>
+      <c r="C50" s="132"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="135"/>
+      <c r="F50" s="132"/>
+      <c r="G50" s="132"/>
+      <c r="H50" s="132"/>
+      <c r="I50" s="134"/>
+      <c r="J50" s="134"/>
+      <c r="K50" s="134"/>
+      <c r="L50" s="134"/>
+      <c r="M50" s="134"/>
+    </row>
+    <row r="51" spans="2:13" s="128" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="130"/>
+      <c r="C51" s="132"/>
+      <c r="D51" s="132"/>
+      <c r="E51" s="132">
+        <f>E47/E45</f>
+        <v>587.71845128898326</v>
+      </c>
+      <c r="F51" s="132" t="s">
+        <v>80</v>
+      </c>
+      <c r="G51" s="132"/>
+      <c r="H51" s="132"/>
+      <c r="I51" s="134"/>
+      <c r="J51" s="134"/>
+      <c r="K51" s="134"/>
+      <c r="L51" s="134"/>
+      <c r="M51" s="134"/>
+    </row>
+    <row r="52" spans="2:13" s="128" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="130"/>
+      <c r="C52" s="132"/>
+      <c r="D52" s="132"/>
+      <c r="E52" s="132"/>
+      <c r="F52" s="132"/>
+      <c r="G52" s="132"/>
+      <c r="H52" s="132"/>
+      <c r="I52" s="134"/>
+      <c r="J52" s="134"/>
+      <c r="K52" s="134"/>
+      <c r="L52" s="134"/>
+      <c r="M52" s="134"/>
+    </row>
+    <row r="53" spans="2:13" s="128" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="130"/>
+      <c r="C53" s="132"/>
+      <c r="D53" s="132" t="str">
+        <f>Dashboard!C11</f>
+        <v>output.freight_tonne_kms</v>
+      </c>
+      <c r="E53" s="132">
+        <f>E51*E12</f>
+        <v>0.97790091728598094</v>
+      </c>
+      <c r="F53" s="132" t="s">
+        <v>81</v>
+      </c>
+      <c r="G53" s="132"/>
+      <c r="H53" s="128" t="s">
+        <v>82</v>
+      </c>
+      <c r="I53" s="134"/>
+      <c r="J53" s="134"/>
+      <c r="K53" s="134"/>
+      <c r="L53" s="134"/>
+      <c r="M53" s="134"/>
+    </row>
+    <row r="54" spans="2:13" s="128" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="130"/>
+      <c r="C54" s="134"/>
+      <c r="D54" s="134"/>
+      <c r="E54" s="134"/>
+      <c r="F54" s="134"/>
+      <c r="G54" s="134"/>
+      <c r="H54" s="134"/>
+      <c r="I54" s="134"/>
+      <c r="J54" s="134"/>
+      <c r="K54" s="134"/>
+      <c r="L54" s="134"/>
+      <c r="M54" s="134"/>
+    </row>
+    <row r="55" spans="2:13" s="128" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="130"/>
+      <c r="C55" s="134"/>
+      <c r="D55" s="134"/>
+      <c r="E55" s="134"/>
+      <c r="F55" s="134"/>
+      <c r="G55" s="134"/>
+      <c r="H55" s="134"/>
+      <c r="I55" s="134"/>
+      <c r="J55" s="134"/>
+      <c r="K55" s="134"/>
+      <c r="L55" s="134"/>
+      <c r="M55" s="134"/>
+    </row>
+    <row r="56" spans="2:13" s="128" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="130"/>
+      <c r="C56" s="134"/>
+      <c r="D56" s="134"/>
+      <c r="E56" s="134"/>
+      <c r="F56" s="134"/>
+      <c r="G56" s="134"/>
+      <c r="H56" s="134"/>
+      <c r="I56" s="134"/>
+      <c r="J56" s="134"/>
+      <c r="K56" s="134"/>
+      <c r="L56" s="134"/>
+      <c r="M56" s="134"/>
+    </row>
+    <row r="57" spans="2:13" s="128" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="130"/>
+      <c r="C57" s="134"/>
+      <c r="D57" s="134"/>
+      <c r="E57" s="134"/>
+      <c r="F57" s="134"/>
+      <c r="G57" s="134"/>
+      <c r="H57" s="134"/>
+      <c r="I57" s="134"/>
+      <c r="J57" s="134"/>
+      <c r="K57" s="134"/>
+      <c r="L57" s="134"/>
+      <c r="M57" s="134"/>
+    </row>
+    <row r="58" spans="2:13" s="128" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="130"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="134"/>
+      <c r="E58" s="134"/>
+      <c r="F58" s="134"/>
+      <c r="G58" s="134"/>
+      <c r="H58" s="134"/>
+      <c r="I58" s="134"/>
+      <c r="J58" s="134"/>
+      <c r="K58" s="134"/>
+      <c r="L58" s="134"/>
+      <c r="M58" s="134"/>
+    </row>
+    <row r="59" spans="2:13" s="128" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="130"/>
+      <c r="C59" s="134"/>
+      <c r="D59" s="134"/>
+      <c r="E59" s="134"/>
+      <c r="F59" s="134"/>
+      <c r="G59" s="134"/>
+      <c r="H59" s="134"/>
+      <c r="I59" s="134"/>
+      <c r="J59" s="134"/>
+      <c r="K59" s="134"/>
+      <c r="L59" s="134"/>
+      <c r="M59" s="134"/>
+    </row>
+    <row r="60" spans="2:13" s="128" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="130"/>
+      <c r="C60" s="134"/>
+      <c r="D60" s="134"/>
+      <c r="E60" s="134"/>
+      <c r="F60" s="134"/>
+      <c r="G60" s="134"/>
+      <c r="H60" s="134"/>
+      <c r="I60" s="134"/>
+      <c r="J60" s="134"/>
+      <c r="K60" s="134"/>
+      <c r="L60" s="134"/>
+      <c r="M60" s="134"/>
+    </row>
+    <row r="61" spans="2:13" s="128" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="130"/>
+      <c r="C61" s="134"/>
+      <c r="D61" s="134"/>
+      <c r="E61" s="134"/>
+      <c r="F61" s="134"/>
+      <c r="G61" s="134"/>
+      <c r="H61" s="134"/>
+      <c r="I61" s="134"/>
+      <c r="J61" s="134"/>
+      <c r="K61" s="134"/>
+      <c r="L61" s="134"/>
+      <c r="M61" s="134"/>
+    </row>
+    <row r="62" spans="2:13" s="128" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="130"/>
+      <c r="C62" s="134"/>
+      <c r="D62" s="134"/>
+      <c r="E62" s="134"/>
+      <c r="F62" s="134"/>
+      <c r="G62" s="134"/>
+      <c r="H62" s="134"/>
+      <c r="I62" s="134"/>
+      <c r="J62" s="134"/>
+      <c r="K62" s="134"/>
+      <c r="L62" s="134"/>
+      <c r="M62" s="134"/>
+    </row>
+    <row r="63" spans="2:13" s="128" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="130"/>
+      <c r="C63" s="134"/>
+      <c r="D63" s="134"/>
+      <c r="E63" s="134"/>
+      <c r="F63" s="134"/>
+      <c r="G63" s="134"/>
+      <c r="H63" s="134"/>
+      <c r="I63" s="134"/>
+      <c r="J63" s="134"/>
+      <c r="K63" s="134"/>
+      <c r="L63" s="134"/>
+      <c r="M63" s="134"/>
+    </row>
+    <row r="64" spans="2:13" s="128" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="130"/>
+      <c r="C64" s="134"/>
+      <c r="D64" s="134"/>
+      <c r="E64" s="134"/>
+      <c r="F64" s="134"/>
+      <c r="G64" s="134"/>
+      <c r="H64" s="134"/>
+      <c r="I64" s="134"/>
+      <c r="J64" s="134"/>
+      <c r="K64" s="134"/>
+      <c r="L64" s="134"/>
+      <c r="M64" s="134"/>
+    </row>
+    <row r="65" spans="2:13" s="128" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="130"/>
+      <c r="C65" s="134"/>
+      <c r="D65" s="134"/>
+      <c r="E65" s="134"/>
+      <c r="F65" s="134"/>
+      <c r="G65" s="134"/>
+      <c r="H65" s="134"/>
+      <c r="I65" s="134"/>
+      <c r="J65" s="134"/>
+      <c r="K65" s="134"/>
+      <c r="L65" s="134"/>
+      <c r="M65" s="134"/>
+    </row>
+    <row r="66" spans="2:13" s="128" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="130"/>
+      <c r="C66" s="134"/>
+      <c r="D66" s="134"/>
+      <c r="E66" s="134"/>
+      <c r="F66" s="134"/>
+      <c r="G66" s="134"/>
+      <c r="H66" s="134"/>
+      <c r="I66" s="134"/>
+      <c r="J66" s="134"/>
+      <c r="K66" s="134"/>
+      <c r="L66" s="134"/>
+      <c r="M66" s="134"/>
+    </row>
+    <row r="67" spans="2:13" s="128" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="130"/>
+      <c r="C67" s="134"/>
+      <c r="D67" s="134"/>
+      <c r="E67" s="134"/>
+      <c r="F67" s="134"/>
+      <c r="G67" s="134"/>
+      <c r="H67" s="134"/>
+      <c r="I67" s="134"/>
+      <c r="J67" s="134"/>
+      <c r="K67" s="134"/>
+      <c r="L67" s="134"/>
+      <c r="M67" s="134"/>
+    </row>
+    <row r="68" spans="2:13" s="128" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="130"/>
+      <c r="C68" s="134"/>
+      <c r="D68" s="134"/>
+      <c r="E68" s="134"/>
+      <c r="F68" s="134"/>
+      <c r="G68" s="134"/>
+      <c r="H68" s="134"/>
+      <c r="I68" s="134"/>
+      <c r="J68" s="134"/>
+      <c r="K68" s="134"/>
+      <c r="L68" s="134"/>
+      <c r="M68" s="134"/>
+    </row>
+    <row r="69" spans="2:13" s="128" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="130"/>
+      <c r="C69" s="134"/>
+      <c r="D69" s="134"/>
+      <c r="E69" s="134"/>
+      <c r="F69" s="134"/>
+      <c r="G69" s="134"/>
+      <c r="H69" s="134"/>
+      <c r="I69" s="134"/>
+      <c r="J69" s="134"/>
+      <c r="K69" s="134"/>
+      <c r="L69" s="134"/>
+      <c r="M69" s="134"/>
+    </row>
+    <row r="70" spans="2:13" s="128" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="130"/>
+      <c r="C70" s="134"/>
+      <c r="D70" s="134"/>
+      <c r="E70" s="134"/>
+      <c r="F70" s="134"/>
+      <c r="G70" s="134"/>
+      <c r="H70" s="134"/>
+      <c r="I70" s="134"/>
+      <c r="J70" s="134"/>
+      <c r="K70" s="134"/>
+      <c r="L70" s="134"/>
+      <c r="M70" s="134"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B71" s="63"/>
-      <c r="C71" s="58"/>
-      <c r="D71" s="58"/>
-      <c r="E71" s="58"/>
-      <c r="F71" s="58"/>
-      <c r="G71" s="58"/>
-      <c r="H71" s="58"/>
-      <c r="I71" s="58"/>
-      <c r="J71" s="58"/>
-      <c r="K71" s="58"/>
-      <c r="L71" s="58"/>
-      <c r="M71" s="58"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="55"/>
+      <c r="H71" s="55"/>
+      <c r="I71" s="55"/>
+      <c r="J71" s="55"/>
+      <c r="K71" s="55"/>
+      <c r="L71" s="55"/>
+      <c r="M71" s="55"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B72" s="63"/>
-      <c r="C72" s="58"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="58"/>
-      <c r="I72" s="58"/>
-      <c r="J72" s="58"/>
-      <c r="K72" s="58"/>
-      <c r="L72" s="58"/>
-      <c r="M72" s="58"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="55"/>
+      <c r="I72" s="55"/>
+      <c r="J72" s="55"/>
+      <c r="K72" s="55"/>
+      <c r="L72" s="55"/>
+      <c r="M72" s="55"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B73" s="63"/>
-      <c r="C73" s="58"/>
-      <c r="D73" s="58"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="58"/>
-      <c r="H73" s="58"/>
-      <c r="I73" s="58"/>
-      <c r="J73" s="58"/>
-      <c r="K73" s="58"/>
-      <c r="L73" s="58"/>
-      <c r="M73" s="58"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="55"/>
+      <c r="I73" s="55"/>
+      <c r="J73" s="55"/>
+      <c r="K73" s="55"/>
+      <c r="L73" s="55"/>
+      <c r="M73" s="55"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B74" s="63"/>
-      <c r="C74" s="58"/>
-      <c r="D74" s="58"/>
-      <c r="E74" s="58"/>
-      <c r="F74" s="58"/>
-      <c r="G74" s="58"/>
-      <c r="H74" s="58"/>
-      <c r="I74" s="58"/>
-      <c r="J74" s="58"/>
-      <c r="K74" s="58"/>
-      <c r="L74" s="58"/>
-      <c r="M74" s="58"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="55"/>
+      <c r="H74" s="55"/>
+      <c r="I74" s="55"/>
+      <c r="J74" s="55"/>
+      <c r="K74" s="55"/>
+      <c r="L74" s="55"/>
+      <c r="M74" s="55"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B75" s="63"/>
-      <c r="C75" s="98"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="58"/>
-      <c r="H75" s="58"/>
-      <c r="I75" s="58"/>
-      <c r="J75" s="58"/>
-      <c r="K75" s="58"/>
-      <c r="L75" s="58"/>
-      <c r="M75" s="58"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="55"/>
+      <c r="I75" s="55"/>
+      <c r="J75" s="55"/>
+      <c r="K75" s="55"/>
+      <c r="L75" s="55"/>
+      <c r="M75" s="55"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B76" s="63"/>
-      <c r="C76" s="98"/>
-      <c r="D76" s="58"/>
-      <c r="E76" s="58"/>
-      <c r="F76" s="58"/>
-      <c r="G76" s="58"/>
-      <c r="H76" s="58"/>
-      <c r="I76" s="58"/>
-      <c r="J76" s="58"/>
-      <c r="K76" s="58"/>
-      <c r="L76" s="58"/>
-      <c r="M76" s="58"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="55"/>
+      <c r="J76" s="55"/>
+      <c r="K76" s="55"/>
+      <c r="L76" s="55"/>
+      <c r="M76" s="55"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B77" s="63"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="58"/>
-      <c r="E77" s="58"/>
-      <c r="F77" s="58"/>
-      <c r="G77" s="58"/>
-      <c r="H77" s="58"/>
-      <c r="I77" s="58"/>
-      <c r="J77" s="58"/>
-      <c r="K77" s="58"/>
-      <c r="L77" s="58"/>
-      <c r="M77" s="58"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="55"/>
+      <c r="J77" s="55"/>
+      <c r="K77" s="55"/>
+      <c r="L77" s="55"/>
+      <c r="M77" s="55"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B78" s="63"/>
-      <c r="C78" s="58"/>
-      <c r="D78" s="58"/>
-      <c r="E78" s="58"/>
-      <c r="F78" s="58"/>
-      <c r="G78" s="58"/>
-      <c r="H78" s="58"/>
-      <c r="I78" s="58"/>
-      <c r="J78" s="58"/>
-      <c r="K78" s="58"/>
-      <c r="L78" s="58"/>
-      <c r="M78" s="58"/>
+      <c r="B78" s="60"/>
+      <c r="C78" s="55"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="55"/>
+      <c r="G78" s="55"/>
+      <c r="H78" s="55"/>
+      <c r="I78" s="55"/>
+      <c r="J78" s="55"/>
+      <c r="K78" s="55"/>
+      <c r="L78" s="55"/>
+      <c r="M78" s="55"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B79" s="63"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="58"/>
-      <c r="F79" s="58"/>
-      <c r="G79" s="58"/>
-      <c r="H79" s="58"/>
-      <c r="I79" s="58"/>
-      <c r="J79" s="58"/>
-      <c r="K79" s="58"/>
-      <c r="L79" s="58"/>
-      <c r="M79" s="58"/>
+      <c r="B79" s="60"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="55"/>
+      <c r="H79" s="55"/>
+      <c r="I79" s="55"/>
+      <c r="J79" s="55"/>
+      <c r="K79" s="55"/>
+      <c r="L79" s="55"/>
+      <c r="M79" s="55"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B80" s="63"/>
-      <c r="C80" s="58"/>
-      <c r="D80" s="58"/>
-      <c r="E80" s="58"/>
-      <c r="F80" s="58"/>
-      <c r="G80" s="58"/>
-      <c r="H80" s="58"/>
-      <c r="I80" s="58"/>
-      <c r="J80" s="58"/>
-      <c r="K80" s="58"/>
-      <c r="L80" s="58"/>
-      <c r="M80" s="58"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="55"/>
+      <c r="H80" s="55"/>
+      <c r="I80" s="55"/>
+      <c r="J80" s="55"/>
+      <c r="K80" s="55"/>
+      <c r="L80" s="55"/>
+      <c r="M80" s="55"/>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B81" s="63"/>
-      <c r="C81" s="58"/>
-      <c r="D81" s="58"/>
-      <c r="E81" s="58"/>
-      <c r="F81" s="58"/>
-      <c r="G81" s="58"/>
-      <c r="H81" s="58"/>
-      <c r="I81" s="58"/>
-      <c r="J81" s="58"/>
-      <c r="K81" s="58"/>
-      <c r="L81" s="58"/>
-      <c r="M81" s="58"/>
+      <c r="B81" s="60"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="55"/>
+      <c r="H81" s="55"/>
+      <c r="I81" s="55"/>
+      <c r="J81" s="55"/>
+      <c r="K81" s="55"/>
+      <c r="L81" s="55"/>
+      <c r="M81" s="55"/>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B82" s="63"/>
-      <c r="C82" s="58"/>
-      <c r="D82" s="58"/>
-      <c r="E82" s="58"/>
-      <c r="F82" s="98"/>
-      <c r="G82" s="58"/>
-      <c r="H82" s="58"/>
-      <c r="I82" s="58"/>
-      <c r="J82" s="58"/>
-      <c r="K82" s="58"/>
-      <c r="L82" s="58"/>
-      <c r="M82" s="58"/>
+      <c r="B82" s="60"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="55"/>
+      <c r="J82" s="55"/>
+      <c r="K82" s="55"/>
+      <c r="L82" s="55"/>
+      <c r="M82" s="55"/>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B83" s="63"/>
-      <c r="C83" s="58"/>
-      <c r="D83" s="58"/>
-      <c r="E83" s="58"/>
-      <c r="F83" s="58"/>
-      <c r="G83" s="58"/>
-      <c r="H83" s="58"/>
-      <c r="I83" s="58"/>
-      <c r="J83" s="58"/>
-      <c r="K83" s="58"/>
-      <c r="L83" s="58"/>
-      <c r="M83" s="58"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="55"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="55"/>
+      <c r="H83" s="55"/>
+      <c r="I83" s="55"/>
+      <c r="J83" s="55"/>
+      <c r="K83" s="55"/>
+      <c r="L83" s="55"/>
+      <c r="M83" s="55"/>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B84" s="63"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="58"/>
-      <c r="E84" s="58"/>
-      <c r="F84" s="58"/>
-      <c r="G84" s="58"/>
-      <c r="H84" s="58"/>
-      <c r="I84" s="58"/>
-      <c r="J84" s="58"/>
-      <c r="K84" s="58"/>
-      <c r="L84" s="58"/>
-      <c r="M84" s="58"/>
+      <c r="B84" s="60"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="55"/>
+      <c r="I84" s="55"/>
+      <c r="J84" s="55"/>
+      <c r="K84" s="55"/>
+      <c r="L84" s="55"/>
+      <c r="M84" s="55"/>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B85" s="63"/>
-      <c r="C85" s="58"/>
-      <c r="D85" s="58"/>
-      <c r="E85" s="58"/>
-      <c r="F85" s="58"/>
-      <c r="G85" s="58"/>
-      <c r="H85" s="58"/>
-      <c r="I85" s="58"/>
-      <c r="J85" s="58"/>
-      <c r="K85" s="58"/>
-      <c r="L85" s="58"/>
-      <c r="M85" s="58"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="55"/>
+      <c r="H85" s="55"/>
+      <c r="I85" s="55"/>
+      <c r="J85" s="55"/>
+      <c r="K85" s="55"/>
+      <c r="L85" s="55"/>
+      <c r="M85" s="55"/>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B86" s="63"/>
-      <c r="C86" s="58"/>
-      <c r="D86" s="58"/>
-      <c r="E86" s="58"/>
-      <c r="F86" s="58"/>
-      <c r="G86" s="58"/>
-      <c r="H86" s="58"/>
-      <c r="I86" s="58"/>
-      <c r="J86" s="58"/>
-      <c r="K86" s="58"/>
-      <c r="L86" s="58"/>
-      <c r="M86" s="58"/>
+      <c r="B86" s="60"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="55"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="55"/>
+      <c r="J86" s="55"/>
+      <c r="K86" s="55"/>
+      <c r="L86" s="55"/>
+      <c r="M86" s="55"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B87" s="63"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58"/>
-      <c r="F87" s="58"/>
-      <c r="G87" s="58"/>
-      <c r="H87" s="58"/>
-      <c r="I87" s="58"/>
-      <c r="J87" s="58"/>
-      <c r="K87" s="58"/>
-      <c r="L87" s="58"/>
-      <c r="M87" s="58"/>
+      <c r="B87" s="60"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="55"/>
+      <c r="H87" s="55"/>
+      <c r="I87" s="55"/>
+      <c r="J87" s="55"/>
+      <c r="K87" s="55"/>
+      <c r="L87" s="55"/>
+      <c r="M87" s="55"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B88" s="63"/>
-      <c r="C88" s="98"/>
-      <c r="D88" s="58"/>
-      <c r="E88" s="58"/>
-      <c r="F88" s="58"/>
-      <c r="G88" s="58"/>
-      <c r="H88" s="58"/>
-      <c r="I88" s="58"/>
-      <c r="J88" s="58"/>
-      <c r="K88" s="58"/>
-      <c r="L88" s="58"/>
-      <c r="M88" s="58"/>
+      <c r="B88" s="60"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="55"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="55"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="55"/>
+      <c r="I88" s="55"/>
+      <c r="J88" s="55"/>
+      <c r="K88" s="55"/>
+      <c r="L88" s="55"/>
+      <c r="M88" s="55"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B89" s="63"/>
-      <c r="C89" s="98"/>
-      <c r="D89" s="58"/>
-      <c r="E89" s="58"/>
-      <c r="F89" s="58"/>
-      <c r="G89" s="58"/>
-      <c r="H89" s="58"/>
-      <c r="I89" s="58"/>
-      <c r="J89" s="58"/>
-      <c r="K89" s="58"/>
-      <c r="L89" s="58"/>
-      <c r="M89" s="58"/>
+      <c r="B89" s="60"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="55"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="55"/>
+      <c r="H89" s="55"/>
+      <c r="I89" s="55"/>
+      <c r="J89" s="55"/>
+      <c r="K89" s="55"/>
+      <c r="L89" s="55"/>
+      <c r="M89" s="55"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B90" s="63"/>
-      <c r="C90" s="58"/>
-      <c r="D90" s="58"/>
-      <c r="E90" s="58"/>
-      <c r="F90" s="58"/>
-      <c r="G90" s="58"/>
-      <c r="H90" s="58"/>
-      <c r="I90" s="58"/>
-      <c r="J90" s="58"/>
-      <c r="K90" s="58"/>
-      <c r="L90" s="58"/>
-      <c r="M90" s="58"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="55"/>
+      <c r="E90" s="55"/>
+      <c r="F90" s="95"/>
+      <c r="G90" s="55"/>
+      <c r="H90" s="55"/>
+      <c r="I90" s="55"/>
+      <c r="J90" s="55"/>
+      <c r="K90" s="55"/>
+      <c r="L90" s="55"/>
+      <c r="M90" s="55"/>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B91" s="63"/>
-      <c r="C91" s="58"/>
-      <c r="D91" s="58"/>
-      <c r="E91" s="58"/>
-      <c r="F91" s="98"/>
-      <c r="G91" s="58"/>
-      <c r="H91" s="58"/>
-      <c r="I91" s="58"/>
-      <c r="J91" s="58"/>
-      <c r="K91" s="58"/>
-      <c r="L91" s="58"/>
-      <c r="M91" s="58"/>
+      <c r="B91" s="60"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="55"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="55"/>
+      <c r="I91" s="55"/>
+      <c r="J91" s="55"/>
+      <c r="K91" s="55"/>
+      <c r="L91" s="55"/>
+      <c r="M91" s="55"/>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B92" s="63"/>
-      <c r="C92" s="58"/>
-      <c r="D92" s="58"/>
-      <c r="E92" s="58"/>
-      <c r="F92" s="58"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="58"/>
-      <c r="I92" s="58"/>
-      <c r="J92" s="58"/>
-      <c r="K92" s="58"/>
-      <c r="L92" s="58"/>
-      <c r="M92" s="58"/>
+      <c r="B92" s="60"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="55"/>
+      <c r="F92" s="55"/>
+      <c r="G92" s="55"/>
+      <c r="H92" s="55"/>
+      <c r="I92" s="55"/>
+      <c r="J92" s="55"/>
+      <c r="K92" s="55"/>
+      <c r="L92" s="55"/>
+      <c r="M92" s="55"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B93" s="63"/>
-      <c r="C93" s="58"/>
-      <c r="D93" s="58"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="58"/>
-      <c r="G93" s="58"/>
-      <c r="H93" s="58"/>
-      <c r="I93" s="58"/>
-      <c r="J93" s="58"/>
-      <c r="K93" s="58"/>
-      <c r="L93" s="58"/>
-      <c r="M93" s="58"/>
+      <c r="B93" s="60"/>
+      <c r="C93" s="55"/>
+      <c r="D93" s="55"/>
+      <c r="E93" s="55"/>
+      <c r="F93" s="55"/>
+      <c r="G93" s="55"/>
+      <c r="H93" s="55"/>
+      <c r="I93" s="55"/>
+      <c r="J93" s="55"/>
+      <c r="K93" s="55"/>
+      <c r="L93" s="55"/>
+      <c r="M93" s="55"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B94" s="63"/>
-      <c r="C94" s="58"/>
-      <c r="D94" s="58"/>
-      <c r="E94" s="58"/>
-      <c r="F94" s="58"/>
-      <c r="G94" s="58"/>
-      <c r="H94" s="58"/>
-      <c r="I94" s="58"/>
-      <c r="J94" s="58"/>
-      <c r="K94" s="58"/>
-      <c r="L94" s="58"/>
-      <c r="M94" s="58"/>
+      <c r="B94" s="60"/>
+      <c r="C94" s="55"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="55"/>
+      <c r="I94" s="55"/>
+      <c r="J94" s="55"/>
+      <c r="K94" s="55"/>
+      <c r="L94" s="55"/>
+      <c r="M94" s="55"/>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B95" s="63"/>
-      <c r="C95" s="58"/>
-      <c r="D95" s="58"/>
-      <c r="E95" s="58"/>
-      <c r="F95" s="58"/>
-      <c r="G95" s="58"/>
-      <c r="H95" s="58"/>
-      <c r="I95" s="58"/>
-      <c r="J95" s="58"/>
-      <c r="K95" s="58"/>
-      <c r="L95" s="58"/>
-      <c r="M95" s="58"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="55"/>
+      <c r="D95" s="55"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="55"/>
+      <c r="H95" s="55"/>
+      <c r="I95" s="55"/>
+      <c r="J95" s="55"/>
+      <c r="K95" s="55"/>
+      <c r="L95" s="55"/>
+      <c r="M95" s="55"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B96" s="63"/>
-      <c r="C96" s="58"/>
-      <c r="D96" s="58"/>
-      <c r="E96" s="58"/>
-      <c r="F96" s="58"/>
-      <c r="G96" s="58"/>
-      <c r="H96" s="58"/>
-      <c r="I96" s="58"/>
-      <c r="J96" s="58"/>
-      <c r="K96" s="58"/>
-      <c r="L96" s="58"/>
-      <c r="M96" s="58"/>
-    </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C98" s="102"/>
-    </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F101" s="102"/>
+      <c r="B96" s="60"/>
+      <c r="C96" s="55"/>
+      <c r="D96" s="55"/>
+      <c r="E96" s="55"/>
+      <c r="F96" s="55"/>
+      <c r="G96" s="55"/>
+      <c r="H96" s="55"/>
+      <c r="I96" s="55"/>
+      <c r="J96" s="55"/>
+      <c r="K96" s="55"/>
+      <c r="L96" s="55"/>
+      <c r="M96" s="55"/>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B97" s="60"/>
+      <c r="C97" s="55"/>
+      <c r="D97" s="55"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="55"/>
+      <c r="H97" s="55"/>
+      <c r="I97" s="55"/>
+      <c r="J97" s="55"/>
+      <c r="K97" s="55"/>
+      <c r="L97" s="55"/>
+      <c r="M97" s="55"/>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B98" s="60"/>
+      <c r="C98" s="55"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="55"/>
+      <c r="F98" s="55"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="55"/>
+      <c r="I98" s="55"/>
+      <c r="J98" s="55"/>
+      <c r="K98" s="55"/>
+      <c r="L98" s="55"/>
+      <c r="M98" s="55"/>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B99" s="60"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="55"/>
+      <c r="J99" s="55"/>
+      <c r="K99" s="55"/>
+      <c r="L99" s="55"/>
+      <c r="M99" s="55"/>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B100" s="60"/>
+      <c r="C100" s="55"/>
+      <c r="D100" s="55"/>
+      <c r="E100" s="55"/>
+      <c r="F100" s="55"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="55"/>
+      <c r="I100" s="55"/>
+      <c r="J100" s="55"/>
+      <c r="K100" s="55"/>
+      <c r="L100" s="55"/>
+      <c r="M100" s="55"/>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B101" s="60"/>
+      <c r="C101" s="55"/>
+      <c r="D101" s="55"/>
+      <c r="E101" s="55"/>
+      <c r="F101" s="55"/>
+      <c r="G101" s="55"/>
+      <c r="H101" s="55"/>
+      <c r="I101" s="55"/>
+      <c r="J101" s="55"/>
+      <c r="K101" s="55"/>
+      <c r="L101" s="55"/>
+      <c r="M101" s="55"/>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B102" s="60"/>
+      <c r="C102" s="95"/>
+      <c r="D102" s="55"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="55"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="55"/>
+      <c r="I102" s="55"/>
+      <c r="J102" s="55"/>
+      <c r="K102" s="55"/>
+      <c r="L102" s="55"/>
+      <c r="M102" s="55"/>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B103" s="60"/>
+      <c r="C103" s="95"/>
+      <c r="D103" s="55"/>
+      <c r="E103" s="55"/>
+      <c r="F103" s="55"/>
+      <c r="G103" s="55"/>
+      <c r="H103" s="55"/>
+      <c r="I103" s="55"/>
+      <c r="J103" s="55"/>
+      <c r="K103" s="55"/>
+      <c r="L103" s="55"/>
+      <c r="M103" s="55"/>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B104" s="60"/>
+      <c r="C104" s="55"/>
+      <c r="D104" s="55"/>
+      <c r="E104" s="55"/>
+      <c r="F104" s="55"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="55"/>
+      <c r="I104" s="55"/>
+      <c r="J104" s="55"/>
+      <c r="K104" s="55"/>
+      <c r="L104" s="55"/>
+      <c r="M104" s="55"/>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B105" s="60"/>
+      <c r="C105" s="55"/>
+      <c r="D105" s="55"/>
+      <c r="E105" s="55"/>
+      <c r="F105" s="55"/>
+      <c r="G105" s="55"/>
+      <c r="H105" s="55"/>
+      <c r="I105" s="55"/>
+      <c r="J105" s="55"/>
+      <c r="K105" s="55"/>
+      <c r="L105" s="55"/>
+      <c r="M105" s="55"/>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B106" s="60"/>
+      <c r="C106" s="55"/>
+      <c r="D106" s="55"/>
+      <c r="E106" s="55"/>
+      <c r="F106" s="55"/>
+      <c r="G106" s="55"/>
+      <c r="H106" s="55"/>
+      <c r="I106" s="55"/>
+      <c r="J106" s="55"/>
+      <c r="K106" s="55"/>
+      <c r="L106" s="55"/>
+      <c r="M106" s="55"/>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B107" s="60"/>
+      <c r="C107" s="55"/>
+      <c r="D107" s="55"/>
+      <c r="E107" s="55"/>
+      <c r="F107" s="55"/>
+      <c r="G107" s="55"/>
+      <c r="H107" s="55"/>
+      <c r="I107" s="55"/>
+      <c r="J107" s="55"/>
+      <c r="K107" s="55"/>
+      <c r="L107" s="55"/>
+      <c r="M107" s="55"/>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B108" s="60"/>
+      <c r="C108" s="55"/>
+      <c r="D108" s="55"/>
+      <c r="E108" s="55"/>
+      <c r="F108" s="55"/>
+      <c r="G108" s="55"/>
+      <c r="H108" s="55"/>
+      <c r="I108" s="55"/>
+      <c r="J108" s="55"/>
+      <c r="K108" s="55"/>
+      <c r="L108" s="55"/>
+      <c r="M108" s="55"/>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B109" s="60"/>
+      <c r="C109" s="55"/>
+      <c r="D109" s="55"/>
+      <c r="E109" s="55"/>
+      <c r="F109" s="95"/>
+      <c r="G109" s="55"/>
+      <c r="H109" s="55"/>
+      <c r="I109" s="55"/>
+      <c r="J109" s="55"/>
+      <c r="K109" s="55"/>
+      <c r="L109" s="55"/>
+      <c r="M109" s="55"/>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B110" s="60"/>
+      <c r="C110" s="55"/>
+      <c r="D110" s="55"/>
+      <c r="E110" s="55"/>
+      <c r="F110" s="55"/>
+      <c r="G110" s="55"/>
+      <c r="H110" s="55"/>
+      <c r="I110" s="55"/>
+      <c r="J110" s="55"/>
+      <c r="K110" s="55"/>
+      <c r="L110" s="55"/>
+      <c r="M110" s="55"/>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B111" s="60"/>
+      <c r="C111" s="55"/>
+      <c r="D111" s="55"/>
+      <c r="E111" s="55"/>
+      <c r="F111" s="55"/>
+      <c r="G111" s="55"/>
+      <c r="H111" s="55"/>
+      <c r="I111" s="55"/>
+      <c r="J111" s="55"/>
+      <c r="K111" s="55"/>
+      <c r="L111" s="55"/>
+      <c r="M111" s="55"/>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B112" s="60"/>
+      <c r="C112" s="55"/>
+      <c r="D112" s="55"/>
+      <c r="E112" s="55"/>
+      <c r="F112" s="55"/>
+      <c r="G112" s="55"/>
+      <c r="H112" s="55"/>
+      <c r="I112" s="55"/>
+      <c r="J112" s="55"/>
+      <c r="K112" s="55"/>
+      <c r="L112" s="55"/>
+      <c r="M112" s="55"/>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B113" s="60"/>
+      <c r="C113" s="55"/>
+      <c r="D113" s="55"/>
+      <c r="E113" s="55"/>
+      <c r="F113" s="55"/>
+      <c r="G113" s="55"/>
+      <c r="H113" s="55"/>
+      <c r="I113" s="55"/>
+      <c r="J113" s="55"/>
+      <c r="K113" s="55"/>
+      <c r="L113" s="55"/>
+      <c r="M113" s="55"/>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B114" s="60"/>
+      <c r="C114" s="55"/>
+      <c r="D114" s="55"/>
+      <c r="E114" s="55"/>
+      <c r="F114" s="55"/>
+      <c r="G114" s="55"/>
+      <c r="H114" s="55"/>
+      <c r="I114" s="55"/>
+      <c r="J114" s="55"/>
+      <c r="K114" s="55"/>
+      <c r="L114" s="55"/>
+      <c r="M114" s="55"/>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B115" s="60"/>
+      <c r="C115" s="95"/>
+      <c r="D115" s="55"/>
+      <c r="E115" s="55"/>
+      <c r="F115" s="55"/>
+      <c r="G115" s="55"/>
+      <c r="H115" s="55"/>
+      <c r="I115" s="55"/>
+      <c r="J115" s="55"/>
+      <c r="K115" s="55"/>
+      <c r="L115" s="55"/>
+      <c r="M115" s="55"/>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B116" s="60"/>
+      <c r="C116" s="95"/>
+      <c r="D116" s="55"/>
+      <c r="E116" s="55"/>
+      <c r="F116" s="55"/>
+      <c r="G116" s="55"/>
+      <c r="H116" s="55"/>
+      <c r="I116" s="55"/>
+      <c r="J116" s="55"/>
+      <c r="K116" s="55"/>
+      <c r="L116" s="55"/>
+      <c r="M116" s="55"/>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B117" s="60"/>
+      <c r="C117" s="55"/>
+      <c r="D117" s="55"/>
+      <c r="E117" s="55"/>
+      <c r="F117" s="55"/>
+      <c r="G117" s="55"/>
+      <c r="H117" s="55"/>
+      <c r="I117" s="55"/>
+      <c r="J117" s="55"/>
+      <c r="K117" s="55"/>
+      <c r="L117" s="55"/>
+      <c r="M117" s="55"/>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B118" s="60"/>
+      <c r="C118" s="55"/>
+      <c r="D118" s="55"/>
+      <c r="E118" s="55"/>
+      <c r="F118" s="95"/>
+      <c r="G118" s="55"/>
+      <c r="H118" s="55"/>
+      <c r="I118" s="55"/>
+      <c r="J118" s="55"/>
+      <c r="K118" s="55"/>
+      <c r="L118" s="55"/>
+      <c r="M118" s="55"/>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B119" s="60"/>
+      <c r="C119" s="55"/>
+      <c r="D119" s="55"/>
+      <c r="E119" s="55"/>
+      <c r="F119" s="55"/>
+      <c r="G119" s="55"/>
+      <c r="H119" s="55"/>
+      <c r="I119" s="55"/>
+      <c r="J119" s="55"/>
+      <c r="K119" s="55"/>
+      <c r="L119" s="55"/>
+      <c r="M119" s="55"/>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B120" s="60"/>
+      <c r="C120" s="55"/>
+      <c r="D120" s="55"/>
+      <c r="E120" s="55"/>
+      <c r="F120" s="55"/>
+      <c r="G120" s="55"/>
+      <c r="H120" s="55"/>
+      <c r="I120" s="55"/>
+      <c r="J120" s="55"/>
+      <c r="K120" s="55"/>
+      <c r="L120" s="55"/>
+      <c r="M120" s="55"/>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B121" s="60"/>
+      <c r="C121" s="55"/>
+      <c r="D121" s="55"/>
+      <c r="E121" s="55"/>
+      <c r="F121" s="55"/>
+      <c r="G121" s="55"/>
+      <c r="H121" s="55"/>
+      <c r="I121" s="55"/>
+      <c r="J121" s="55"/>
+      <c r="K121" s="55"/>
+      <c r="L121" s="55"/>
+      <c r="M121" s="55"/>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B122" s="60"/>
+      <c r="C122" s="55"/>
+      <c r="D122" s="55"/>
+      <c r="E122" s="55"/>
+      <c r="F122" s="55"/>
+      <c r="G122" s="55"/>
+      <c r="H122" s="55"/>
+      <c r="I122" s="55"/>
+      <c r="J122" s="55"/>
+      <c r="K122" s="55"/>
+      <c r="L122" s="55"/>
+      <c r="M122" s="55"/>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B123" s="60"/>
+      <c r="C123" s="55"/>
+      <c r="D123" s="55"/>
+      <c r="E123" s="55"/>
+      <c r="F123" s="55"/>
+      <c r="G123" s="55"/>
+      <c r="H123" s="55"/>
+      <c r="I123" s="55"/>
+      <c r="J123" s="55"/>
+      <c r="K123" s="55"/>
+      <c r="L123" s="55"/>
+      <c r="M123" s="55"/>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C125" s="99"/>
+    </row>
+    <row r="128" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F128" s="99"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
